--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254519.0290689368</v>
+        <v>252631.4475525352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>38.1709951407959</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>209.4358303503865</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.03418953492981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>116.9006582332472</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.788000459170651</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.77840076253221</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>254.0473578122647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>244.3243799685264</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481157</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.86965341517841</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853693</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491422</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>80.88877949313071</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>203.6602223743281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>94.16481274941239</v>
       </c>
       <c r="X16" t="n">
-        <v>67.09863491327857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X19" t="n">
-        <v>199.7180552735508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.406417419881679</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>94.16481274941229</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.459896748109329</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>166.9438950833113</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,10 +2770,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532055</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965537</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801219</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1313183205124346</v>
+        <v>42.20569823125378</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571499</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.10866026757</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C2" t="n">
-        <v>984.1461433271581</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D2" t="n">
-        <v>984.1461433271581</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>984.1461433271581</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>573.1602385375506</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.708500331692</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.7728273507103</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="C4" t="n">
-        <v>329.7728273507103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>329.7728273507103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>329.7728273507103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>329.7728273507103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.7728273507103</v>
+        <v>124.6845874112026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,46 +4571,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062279</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801199</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D7" t="n">
-        <v>365.6939024587813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>217.7808088763882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>70.89086137847781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>70.89086137847781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>70.89086137847781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>70.89086137847781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587813</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587813</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.506187451447</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>718.6990929206892</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036449</v>
+        <v>300.735284818876</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862888</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834951</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834951</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.24535949138</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.24535949138</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.24535949138</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515568</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571353</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915167</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>68.96283375488809</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>68.96283375488809</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600572</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600572</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600572</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600572</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600572</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>617.006227188208</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512474</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>250.6112985851278</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,49 +5024,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.2236783705318</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>394.2236783705318</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.278864135749</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>803.8616940987889</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>575.8721432007716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007716</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811258</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>755.1831334811258</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>687.4067345788242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>687.4067345788242</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,19 +5598,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005284</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742982</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307681</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>180.0505168052655</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>329.1202010073254</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1491.43504084085</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1491.43504084085</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1267.649625630356</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U22" t="n">
-        <v>1267.649625630356</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V22" t="n">
-        <v>1012.965137424469</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W22" t="n">
-        <v>1012.965137424469</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>784.9755865264518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,10 +5999,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507115</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507115</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1493.40122333759</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="U25" t="n">
-        <v>1106.500658293559</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V25" t="n">
-        <v>851.816170087672</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W25" t="n">
-        <v>562.3990000507115</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>562.3990000507115</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.3990000507115</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>148.5096761832847</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706319</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.8783819731806</v>
+        <v>439.5324299542175</v>
       </c>
       <c r="C31" t="n">
-        <v>546.7030643266444</v>
+        <v>326.3571123076813</v>
       </c>
       <c r="D31" t="n">
-        <v>452.3472901956795</v>
+        <v>232.0013381767163</v>
       </c>
       <c r="E31" t="n">
-        <v>360.1950618946571</v>
+        <v>139.8491098756939</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386963</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220496</v>
+        <v>730.4517433652458</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.7659815220496</v>
+        <v>565.4200295030864</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,22 +6935,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504507</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7120,10 +7120,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
         <v>772.288612901031</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,37 +7330,37 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270182</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028813</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>433.7515527292969</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>41.75994765618393</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>9.90051268448611</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>62.91120742583814</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>85.30006332127807</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>188.8856946302407</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>48.4774209494999</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="X16" t="n">
-        <v>158.6110204757586</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X19" t="n">
-        <v>25.99160011548636</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.5579349839111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>104.5044556556834</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>119.2934573152661</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338554</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.08647307386182</v>
+        <v>48.01209316312044</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26314,28 +26314,28 @@
         <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
+        <v>312823.2477901671</v>
+      </c>
+      <c r="F2" t="n">
         <v>312823.2477901669</v>
-      </c>
-      <c r="F2" t="n">
-        <v>312823.247790167</v>
       </c>
       <c r="G2" t="n">
         <v>312823.247790167</v>
       </c>
       <c r="H2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="I2" t="n">
+        <v>312823.2477901671</v>
+      </c>
+      <c r="J2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="J2" t="n">
-        <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
         <v>325457.7098762157</v>
@@ -26344,16 +26344,16 @@
         <v>328416.7079457136</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457137</v>
       </c>
       <c r="N2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.820286676476826e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106714</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-510043.117118765</v>
       </c>
       <c r="C6" t="n">
-        <v>79924.7620957793</v>
+        <v>79924.76209577947</v>
       </c>
       <c r="D6" t="n">
-        <v>79924.7620957788</v>
+        <v>79924.76209577938</v>
       </c>
       <c r="E6" t="n">
-        <v>-326498.7222223158</v>
+        <v>-326596.1813482887</v>
       </c>
       <c r="F6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="G6" t="n">
-        <v>198661.3142545796</v>
+        <v>198563.8551286075</v>
       </c>
       <c r="H6" t="n">
-        <v>198661.3142545796</v>
+        <v>198563.8551286075</v>
       </c>
       <c r="I6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="J6" t="n">
-        <v>22238.09506198665</v>
+        <v>22140.63593601475</v>
       </c>
       <c r="K6" t="n">
-        <v>144327.66594208</v>
+        <v>144309.1722041456</v>
       </c>
       <c r="L6" t="n">
         <v>175765.3004966301</v>
       </c>
       <c r="M6" t="n">
-        <v>51307.19206365981</v>
+        <v>51307.19206365984</v>
       </c>
       <c r="N6" t="n">
         <v>186108.2072974966</v>
       </c>
       <c r="O6" t="n">
-        <v>186108.2072974967</v>
+        <v>186108.2072974968</v>
       </c>
       <c r="P6" t="n">
         <v>141945.6019946513</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170872</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237013</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>375.6131748799991</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>176.8021083056671</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>97.21263156369803</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.40914402580373</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.449938196883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642205</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>28.42155842600477</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>111.2255339587429</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>79.5983927958307</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7458196030339</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>171.2488638306973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554475</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633811</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473563</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141122</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188926</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890693</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396487</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034989</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061916</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078621</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644451</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813584</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302251</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175858</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383812</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701168</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.82557620313</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932183</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713965</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873161</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>766.9461261273099</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35966,22 +35966,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>83.67012661109058</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939276</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36996,10 +36996,10 @@
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>345.2749096669463</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325992</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>373.6013019241296</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>471.2493968713488</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
